--- a/New Microsoft Excel Worksheet_fr.xlsx
+++ b/New Microsoft Excel Worksheet_fr.xlsx
@@ -29,7 +29,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>mäâx</t>
+      <t>mãàx</t>
     </r>
   </si>
   <si>

--- a/New Microsoft Excel Worksheet_fr.xlsx
+++ b/New Microsoft Excel Worksheet_fr.xlsx
@@ -29,7 +29,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>mãàx</t>
+      <t>måæx</t>
     </r>
   </si>
   <si>

--- a/New Microsoft Excel Worksheet_fr.xlsx
+++ b/New Microsoft Excel Worksheet_fr.xlsx
@@ -29,7 +29,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>måæx</t>
+      <t>máäx</t>
     </r>
   </si>
   <si>
@@ -40,7 +40,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>dóöcs</t>
+      <t>dóòcs</t>
     </r>
   </si>
 </sst>

--- a/New Microsoft Excel Worksheet_fr.xlsx
+++ b/New Microsoft Excel Worksheet_fr.xlsx
@@ -29,7 +29,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>âådd tõô tèêstqâå</t>
+      <t>æædd tòö tééstqææ</t>
     </r>
   </si>
   <si>

--- a/New Microsoft Excel Worksheet_fr.xlsx
+++ b/New Microsoft Excel Worksheet_fr.xlsx
@@ -29,7 +29,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>æædd tòö tééstqææ</t>
+      <t>áådd töó tèèstqáå</t>
     </r>
   </si>
   <si>
